--- a/Doc/Camera_6nd pin define.xlsx
+++ b/Doc/Camera_6nd pin define.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F773BD-9605-44A3-8213-8A06FE172EFE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15936"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,7 +12,7 @@
     <sheet name="Sheet1 (2)" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="279">
   <si>
     <t>元器件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1083,13 +1082,17 @@
   </si>
   <si>
     <t>电量输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1413,13 +1416,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1431,30 +1450,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1741,1226 +1744,1235 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="78.5" customWidth="1"/>
+    <col min="8" max="8" width="78.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="52"/>
-      <c r="B1" s="53" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="44"/>
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="45" t="s">
         <v>194</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="55" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="16"/>
-      <c r="I2" s="50"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="55" t="s">
+      <c r="I2" s="54"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="50"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="55" t="s">
+      <c r="I3" s="54"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="50"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="55" t="s">
+      <c r="I4" s="54"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
       <c r="H5" s="16"/>
-      <c r="I5" s="50"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="55" t="s">
+      <c r="I5" s="54"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="50"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="55" t="s">
+      <c r="I6" s="54"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
       <c r="H7" s="16"/>
-      <c r="I7" s="50"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="55" t="s">
+      <c r="I7" s="54"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="E8" s="55" t="s">
-        <v>233</v>
-      </c>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
+      <c r="E8" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
       <c r="H8" s="16"/>
-      <c r="I8" s="50"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="54" t="s">
+      <c r="I8" s="54"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="57" t="s">
+      <c r="C9" s="44"/>
+      <c r="D9" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="55"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="46"/>
       <c r="H9" s="16"/>
-      <c r="I9" s="50"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="57" t="s">
+      <c r="I9" s="54"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="57"/>
-      <c r="G10" s="55"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="46"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="50"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="57" t="s">
+      <c r="I10" s="54"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="57"/>
-      <c r="G11" s="55"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="46"/>
       <c r="H11" s="16"/>
-      <c r="I11" s="50"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="57" t="s">
+      <c r="I11" s="54"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="57"/>
-      <c r="G12" s="55"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="46"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="50"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="57" t="s">
+      <c r="I12" s="54"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="57" t="s">
+      <c r="E13" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="57"/>
-      <c r="G13" s="55"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="46"/>
       <c r="H13" s="16"/>
-      <c r="I13" s="50"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="57" t="s">
+      <c r="I13" s="54"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="E14" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="57"/>
-      <c r="G14" s="55"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="46"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="50"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54" t="s">
+      <c r="I14" s="54"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="51"/>
+      <c r="B15" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="55" t="s">
+      <c r="C15" s="44"/>
+      <c r="D15" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
       <c r="H15" s="16"/>
-      <c r="I15" s="50"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="55" t="s">
+      <c r="I15" s="54"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="50"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="58" t="s">
+      <c r="I16" s="54"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="46" t="s">
         <v>245</v>
       </c>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
       <c r="H17" s="16"/>
-      <c r="I17" s="50"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="58" t="s">
+      <c r="I17" s="54"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="E18" s="55" t="s">
+      <c r="E18" s="46" t="s">
         <v>246</v>
       </c>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
       <c r="H18" s="16"/>
-      <c r="I18" s="50"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
-      <c r="B19" s="59" t="s">
+      <c r="I18" s="54"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="51"/>
+      <c r="B19" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="55" t="s">
+      <c r="C19" s="44"/>
+      <c r="D19" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="E19" s="55" t="s">
+      <c r="E19" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
       <c r="H19" s="16"/>
-      <c r="I19" s="50"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54" t="s">
+      <c r="I19" s="54"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="51"/>
+      <c r="B20" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="55" t="s">
+      <c r="C20" s="44"/>
+      <c r="D20" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="55" t="s">
+      <c r="E20" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="50"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="55" t="s">
+      <c r="I20" s="54"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="55" t="s">
+      <c r="E21" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
       <c r="H21" s="16"/>
-      <c r="I21" s="50"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="54"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="55" t="s">
+      <c r="I21" s="54"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="51"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="E22" s="55" t="s">
+      <c r="E22" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
       <c r="H22" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="I22" s="50"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54" t="s">
+      <c r="I22" s="54"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="51"/>
+      <c r="B23" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="55" t="s">
+      <c r="C23" s="44"/>
+      <c r="D23" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
       <c r="H23" s="16"/>
-      <c r="I23" s="50"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="55" t="s">
+      <c r="I23" s="54"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="55" t="s">
+      <c r="E24" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="50"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="55" t="s">
+      <c r="I24" s="54"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="51"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="46" t="s">
         <v>239</v>
       </c>
-      <c r="E25" s="55" t="s">
+      <c r="E25" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
       <c r="H25" s="16"/>
-      <c r="I25" s="50"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
+      <c r="I25" s="54"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="51"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
       <c r="H26" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="I26" s="50"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
+      <c r="I26" s="54"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="51"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
       <c r="H27" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="I27" s="50"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54" t="s">
+      <c r="I27" s="54"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="51"/>
+      <c r="B28" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="55" t="s">
+      <c r="C28" s="44"/>
+      <c r="D28" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="55" t="s">
+      <c r="E28" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
       <c r="H28" s="16"/>
-      <c r="I28" s="50"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="55" t="s">
+      <c r="I28" s="54"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="51"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="55" t="s">
+      <c r="E29" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
       <c r="H29" s="16"/>
-      <c r="I29" s="50"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54" t="s">
+      <c r="I29" s="54"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="51"/>
+      <c r="B30" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="55" t="s">
+      <c r="C30" s="44"/>
+      <c r="D30" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="E30" s="55" t="s">
+      <c r="E30" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
       <c r="H30" s="16"/>
-      <c r="I30" s="50"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="55" t="s">
+      <c r="I30" s="54"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="46" t="s">
         <v>242</v>
       </c>
-      <c r="E31" s="55" t="s">
+      <c r="E31" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
       <c r="H31" s="16"/>
-      <c r="I31" s="50"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="54" t="s">
+      <c r="I31" s="54"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="52"/>
-      <c r="D32" s="58" t="s">
+      <c r="C32" s="44"/>
+      <c r="D32" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="E32" s="55" t="s">
+      <c r="E32" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
       <c r="H32" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="I32" s="50"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="58" t="s">
+      <c r="I32" s="54"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="E33" s="55" t="s">
+      <c r="E33" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
       <c r="H33" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="I33" s="50"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="54"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="58" t="s">
+      <c r="I33" s="54"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="51"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="E34" s="55" t="s">
+      <c r="E34" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
       <c r="H34" s="17"/>
-      <c r="I34" s="50"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="54"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="55" t="s">
+      <c r="I34" s="54"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="51"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="E35" s="55" t="s">
+      <c r="E35" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="51" t="s">
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="I35" s="50"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="54"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="55" t="s">
+      <c r="I35" s="54"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="51"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="E36" s="55" t="s">
+      <c r="E36" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="50"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="54"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="55" t="s">
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="54"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="51"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="E37" s="55" t="s">
+      <c r="E37" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="50"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="54"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="55" t="s">
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="54"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="51"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="E38" s="55" t="s">
+      <c r="E38" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="50"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="58" t="s">
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="54"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="51"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="E39" s="55" t="s">
+      <c r="E39" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
       <c r="H39" s="17"/>
-      <c r="I39" s="50"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="54"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="58" t="s">
+      <c r="I39" s="54"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="51"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="E40" s="55" t="s">
+      <c r="E40" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
       <c r="H40" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="I40" s="50"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="54"/>
-      <c r="B41" s="54" t="s">
+      <c r="I40" s="54"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="51"/>
+      <c r="B41" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="52"/>
-      <c r="D41" s="57" t="s">
+      <c r="C41" s="44"/>
+      <c r="D41" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="E41" s="55" t="s">
+      <c r="E41" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
       <c r="H41" s="17"/>
-      <c r="I41" s="50"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="54"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="55" t="s">
+      <c r="I41" s="54"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="51"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="E42" s="55" t="s">
+      <c r="E42" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
       <c r="H42" s="17"/>
-      <c r="I42" s="50"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="54"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="55" t="s">
+      <c r="I42" s="54"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="51"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="E43" s="55" t="s">
+      <c r="E43" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
       <c r="H43" s="17"/>
-      <c r="I43" s="50"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="54"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="55" t="s">
+      <c r="I43" s="54"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="51"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="E44" s="55" t="s">
+      <c r="E44" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
       <c r="H44" s="17"/>
-      <c r="I44" s="50"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="54"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="55" t="s">
+      <c r="I44" s="54"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="51"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="E45" s="55" t="s">
+      <c r="E45" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
       <c r="H45" s="17"/>
-      <c r="I45" s="50"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="54"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="55" t="s">
+      <c r="I45" s="54"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="51"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="E46" s="55" t="s">
+      <c r="E46" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
       <c r="H46" s="17"/>
-      <c r="I46" s="50"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="54" t="s">
+      <c r="I46" s="54"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="B47" s="54" t="s">
+      <c r="B47" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="C47" s="52"/>
-      <c r="D47" s="55" t="s">
+      <c r="C47" s="44"/>
+      <c r="D47" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="E47" s="55" t="s">
+      <c r="E47" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="54"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="55" t="s">
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="51"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="E48" s="55" t="s">
+      <c r="E48" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="F48" s="52"/>
-      <c r="G48" s="52"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="54"/>
-      <c r="B49" s="54" t="s">
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="51"/>
+      <c r="B49" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="C49" s="52"/>
-      <c r="D49" s="55" t="s">
+      <c r="C49" s="44"/>
+      <c r="D49" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="E49" s="55" t="s">
+      <c r="E49" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="F49" s="52"/>
-      <c r="G49" s="52"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="54"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="55" t="s">
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="51"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="E50" s="55" t="s">
+      <c r="E50" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="F50" s="52"/>
-      <c r="G50" s="52"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="54"/>
-      <c r="B51" s="54">
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="51"/>
+      <c r="B51" s="51">
         <v>485</v>
       </c>
-      <c r="C51" s="52"/>
-      <c r="D51" s="55" t="s">
+      <c r="C51" s="44"/>
+      <c r="D51" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="E51" s="55" t="s">
+      <c r="E51" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="54"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="55" t="s">
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="51"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="E52" s="55" t="s">
+      <c r="E52" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="54"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="52"/>
-      <c r="D53" s="55" t="s">
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="51"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="E53" s="55" t="s">
+      <c r="E53" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="F53" s="56"/>
-      <c r="G53" s="56"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="54"/>
-      <c r="B54" s="54" t="s">
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="51"/>
+      <c r="B54" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="52"/>
-      <c r="D54" s="55" t="s">
+      <c r="C54" s="44"/>
+      <c r="D54" s="46" t="s">
         <v>236</v>
       </c>
-      <c r="E54" s="55" t="s">
+      <c r="E54" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="F54" s="52"/>
-      <c r="G54" s="52"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="54"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="55" t="s">
+      <c r="F54" s="44"/>
+      <c r="G54" s="44"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="51"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="E55" s="55" t="s">
+      <c r="E55" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="F55" s="52"/>
-      <c r="G55" s="52"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="54"/>
-      <c r="B56" s="54" t="s">
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="51"/>
+      <c r="B56" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="52"/>
-      <c r="D56" s="55" t="s">
+      <c r="C56" s="44"/>
+      <c r="D56" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="E56" s="55" t="s">
+      <c r="E56" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="F56" s="52"/>
-      <c r="G56" s="52"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="54"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="55" t="s">
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="51"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="E57" s="55" t="s">
+      <c r="E57" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="F57" s="52"/>
-      <c r="G57" s="52"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="54" t="s">
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="B58" s="54" t="s">
+      <c r="B58" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C58" s="52"/>
-      <c r="D58" s="55" t="s">
+      <c r="C58" s="44"/>
+      <c r="D58" s="46" t="s">
         <v>253</v>
       </c>
-      <c r="E58" s="55" t="s">
+      <c r="E58" s="46" t="s">
         <v>248</v>
       </c>
-      <c r="F58" s="52"/>
-      <c r="G58" s="52"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="54"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="52"/>
-      <c r="D59" s="55" t="s">
+      <c r="F58" s="44"/>
+      <c r="G58" s="44"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="51"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="46" t="s">
         <v>254</v>
       </c>
-      <c r="E59" s="55" t="s">
+      <c r="E59" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="F59" s="52"/>
-      <c r="G59" s="52"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="54"/>
-      <c r="B60" s="54" t="s">
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="51"/>
+      <c r="B60" s="51" t="s">
         <v>266</v>
       </c>
-      <c r="C60" s="52"/>
-      <c r="D60" s="55" t="s">
+      <c r="C60" s="44"/>
+      <c r="D60" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="E60" s="55" t="s">
+      <c r="E60" s="46" t="s">
         <v>264</v>
       </c>
-      <c r="F60" s="52"/>
-      <c r="G60" s="52"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="54"/>
-      <c r="B61" s="54"/>
-      <c r="C61" s="52"/>
-      <c r="D61" s="55" t="s">
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="51"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="E61" s="55" t="s">
+      <c r="E61" s="46" t="s">
         <v>265</v>
       </c>
-      <c r="F61" s="52"/>
-      <c r="G61" s="52"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="54"/>
-      <c r="B62" s="54" t="s">
+      <c r="F61" s="44"/>
+      <c r="G61" s="44"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="51"/>
+      <c r="B62" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="C62" s="52"/>
-      <c r="D62" s="55" t="s">
+      <c r="C62" s="44"/>
+      <c r="D62" s="46" t="s">
         <v>257</v>
       </c>
-      <c r="E62" s="55" t="s">
+      <c r="E62" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="F62" s="52"/>
-      <c r="G62" s="52"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="54"/>
-      <c r="B63" s="54"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="55" t="s">
+      <c r="F62" s="44"/>
+      <c r="G62" s="44"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="51"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="E63" s="55" t="s">
+      <c r="E63" s="46" t="s">
         <v>263</v>
       </c>
-      <c r="F63" s="52"/>
-      <c r="G63" s="52"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="54"/>
-      <c r="B64" s="54" t="s">
+      <c r="F63" s="44"/>
+      <c r="G63" s="44"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="51"/>
+      <c r="B64" s="51" t="s">
         <v>260</v>
       </c>
-      <c r="C64" s="52"/>
-      <c r="D64" s="55" t="s">
+      <c r="C64" s="44"/>
+      <c r="D64" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="E64" s="55" t="s">
+      <c r="E64" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="F64" s="52"/>
-      <c r="G64" s="52"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="54"/>
-      <c r="B65" s="54"/>
-      <c r="C65" s="52"/>
-      <c r="D65" s="55" t="s">
+      <c r="F64" s="44"/>
+      <c r="G64" s="44"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="51"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="E65" s="55" t="s">
+      <c r="E65" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="F65" s="52"/>
-      <c r="G65" s="52"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="54"/>
-      <c r="B66" s="54" t="s">
+      <c r="F65" s="44"/>
+      <c r="G65" s="44"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="51"/>
+      <c r="B66" s="51" t="s">
         <v>261</v>
       </c>
-      <c r="C66" s="52"/>
-      <c r="D66" s="55" t="s">
+      <c r="C66" s="44"/>
+      <c r="D66" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="E66" s="55" t="s">
+      <c r="E66" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="F66" s="52"/>
-      <c r="G66" s="52"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="54"/>
-      <c r="B67" s="54"/>
-      <c r="C67" s="52"/>
-      <c r="D67" s="55" t="s">
+      <c r="F66" s="44"/>
+      <c r="G66" s="44"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="51"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="E67" s="55" t="s">
+      <c r="E67" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="F67" s="52"/>
-      <c r="G67" s="52"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="54" t="s">
+      <c r="F67" s="44"/>
+      <c r="G67" s="44"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="B68" s="54" t="s">
+      <c r="B68" s="51" t="s">
         <v>269</v>
       </c>
-      <c r="C68" s="52"/>
-      <c r="D68" s="55" t="s">
+      <c r="C68" s="44"/>
+      <c r="D68" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="E68" s="55" t="s">
+      <c r="E68" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="F68" s="52"/>
-      <c r="G68" s="52"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="54"/>
-      <c r="B69" s="54"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="55" t="s">
+      <c r="F68" s="44"/>
+      <c r="G68" s="44"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="51"/>
+      <c r="B69" s="51"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="E69" s="55" t="s">
+      <c r="E69" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="F69" s="52"/>
-      <c r="G69" s="52"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="54"/>
-      <c r="B70" s="54"/>
-      <c r="C70" s="52"/>
-      <c r="D70" s="55" t="s">
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="51"/>
+      <c r="B70" s="51"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="E70" s="55" t="s">
+      <c r="E70" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="52"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="54"/>
-      <c r="B71" s="54"/>
-      <c r="C71" s="52"/>
-      <c r="D71" s="55" t="s">
+      <c r="F70" s="44"/>
+      <c r="G70" s="44"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="51"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="E71" s="55" t="s">
+      <c r="E71" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="F71" s="52"/>
-      <c r="G71" s="52"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="54"/>
-      <c r="B72" s="54" t="s">
+      <c r="F71" s="44"/>
+      <c r="G71" s="44"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="51"/>
+      <c r="B72" s="51" t="s">
         <v>270</v>
       </c>
-      <c r="C72" s="52"/>
-      <c r="D72" s="55" t="s">
+      <c r="C72" s="44"/>
+      <c r="D72" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="E72" s="55" t="s">
+      <c r="E72" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="54"/>
-      <c r="B73" s="54"/>
-      <c r="C73" s="52"/>
-      <c r="D73" s="55" t="s">
+      <c r="F72" s="44"/>
+      <c r="G72" s="44"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="51"/>
+      <c r="B73" s="51"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="E73" s="55" t="s">
+      <c r="E73" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="F73" s="52"/>
-      <c r="G73" s="52"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="54"/>
-      <c r="B74" s="54"/>
-      <c r="C74" s="52"/>
-      <c r="D74" s="55" t="s">
+      <c r="F73" s="44"/>
+      <c r="G73" s="44"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="51"/>
+      <c r="B74" s="51"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="E74" s="55" t="s">
+      <c r="E74" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="F74" s="52"/>
-      <c r="G74" s="52"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="54"/>
-      <c r="B75" s="54"/>
-      <c r="C75" s="52"/>
-      <c r="D75" s="55" t="s">
+      <c r="F74" s="44"/>
+      <c r="G74" s="44"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="51"/>
+      <c r="B75" s="51"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="E75" s="55" t="s">
+      <c r="E75" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="F75" s="52"/>
-      <c r="G75" s="52"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="52"/>
-      <c r="B76" s="54" t="s">
+      <c r="F75" s="44"/>
+      <c r="G75" s="44"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="44"/>
+      <c r="B76" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="C76" s="52"/>
-      <c r="D76" s="55" t="s">
+      <c r="C76" s="44"/>
+      <c r="D76" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="E76" s="55" t="s">
+      <c r="E76" s="46" t="s">
         <v>274</v>
       </c>
-      <c r="F76" s="52"/>
-      <c r="G76" s="52"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="52"/>
-      <c r="B77" s="54"/>
-      <c r="C77" s="52"/>
-      <c r="D77" s="55" t="s">
+      <c r="F76" s="44"/>
+      <c r="G76" s="44"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="44"/>
+      <c r="B77" s="51"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="E77" s="55" t="s">
+      <c r="E77" s="46" t="s">
         <v>275</v>
       </c>
-      <c r="F77" s="52"/>
-      <c r="G77" s="52"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="52"/>
-      <c r="B78" s="60" t="s">
+      <c r="F77" s="44"/>
+      <c r="G77" s="44"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="44"/>
+      <c r="B78" s="52" t="s">
         <v>277</v>
       </c>
-      <c r="C78" s="52"/>
-      <c r="D78" s="55" t="s">
+      <c r="C78" s="44"/>
+      <c r="D78" s="46" t="s">
         <v>206</v>
       </c>
-      <c r="E78" s="55" t="s">
+      <c r="E78" s="46" t="s">
         <v>272</v>
       </c>
-      <c r="F78" s="52"/>
-      <c r="G78" s="52"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="52"/>
-      <c r="B79" s="60"/>
-      <c r="C79" s="52"/>
-      <c r="D79" s="55" t="s">
+      <c r="F78" s="44"/>
+      <c r="G78" s="44"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="44"/>
+      <c r="B79" s="52"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="E79" s="55" t="s">
+      <c r="E79" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="F79" s="52"/>
-      <c r="G79" s="52"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="A68:A75"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="I2:I46"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="A32:A46"/>
+    <mergeCell ref="A9:A31"/>
+    <mergeCell ref="B30:B31"/>
     <mergeCell ref="A47:A57"/>
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="B64:B65"/>
@@ -2971,22 +2983,13 @@
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="B49:B50"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="I2:I46"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B23:B24"/>
     <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B15:B18"/>
     <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="A32:A46"/>
-    <mergeCell ref="A9:A31"/>
-    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="A68:A75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="B78:B79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2995,19 +2998,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F976D49-3B18-45CE-8DB7-3B3C5EC9E8E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G5"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3027,22 +3030,22 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>207</v>
       </c>
@@ -3055,7 +3058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED0F631-EECA-4439-84BF-C6779F739FD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3065,15 +3068,15 @@
       <selection activeCell="F39" activeCellId="1" sqref="A1:G68 A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="78.5" customWidth="1"/>
+    <col min="7" max="7" width="78.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3093,11 +3096,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="57" t="s">
         <v>68</v>
       </c>
       <c r="C2" s="2"/>
@@ -3113,11 +3116,11 @@
       <c r="G2" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="H2" s="50"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
+      <c r="H2" s="54"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="3"/>
       <c r="D3" s="20" t="s">
         <v>147</v>
@@ -3131,11 +3134,11 @@
       <c r="G3" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="50"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
+      <c r="H3" s="54"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="3"/>
       <c r="D4" s="20" t="s">
         <v>148</v>
@@ -3149,11 +3152,11 @@
       <c r="G4" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="H4" s="50"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
+      <c r="H4" s="54"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="3"/>
       <c r="D5" s="20" t="s">
         <v>69</v>
@@ -3167,11 +3170,11 @@
       <c r="G5" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="H5" s="50"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
+      <c r="H5" s="54"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="56"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="4"/>
       <c r="D6" s="29" t="s">
         <v>70</v>
@@ -3185,13 +3188,13 @@
       <c r="G6" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="H6" s="50"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="44" t="s">
+      <c r="H6" s="54"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="55" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="5"/>
@@ -3205,11 +3208,11 @@
         <v>65</v>
       </c>
       <c r="G7" s="16"/>
-      <c r="H7" s="50"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
-      <c r="B8" s="47"/>
+      <c r="H7" s="54"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="59"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="6"/>
       <c r="D8" s="11" t="s">
         <v>11</v>
@@ -3221,11 +3224,11 @@
         <v>66</v>
       </c>
       <c r="G8" s="16"/>
-      <c r="H8" s="50"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="45"/>
-      <c r="B9" s="47"/>
+      <c r="H8" s="54"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="59"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="6"/>
       <c r="D9" s="11" t="s">
         <v>12</v>
@@ -3237,11 +3240,11 @@
         <v>78</v>
       </c>
       <c r="G9" s="16"/>
-      <c r="H9" s="50"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="45"/>
-      <c r="B10" s="47"/>
+      <c r="H9" s="54"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="59"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="6"/>
       <c r="D10" s="11" t="s">
         <v>13</v>
@@ -3253,11 +3256,11 @@
         <v>79</v>
       </c>
       <c r="G10" s="16"/>
-      <c r="H10" s="50"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="45"/>
-      <c r="B11" s="47"/>
+      <c r="H10" s="54"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="59"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="6"/>
       <c r="D11" s="11" t="s">
         <v>14</v>
@@ -3269,11 +3272,11 @@
         <v>80</v>
       </c>
       <c r="G11" s="16"/>
-      <c r="H11" s="50"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="47"/>
+      <c r="H11" s="54"/>
+    </row>
+    <row r="12" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="59"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="7"/>
       <c r="D12" s="13" t="s">
         <v>15</v>
@@ -3285,11 +3288,11 @@
         <v>83</v>
       </c>
       <c r="G12" s="16"/>
-      <c r="H12" s="50"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="45"/>
-      <c r="B13" s="49" t="s">
+      <c r="H12" s="54"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="59"/>
+      <c r="B13" s="57" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="3"/>
@@ -3303,11 +3306,11 @@
         <v>70</v>
       </c>
       <c r="G13" s="16"/>
-      <c r="H13" s="50"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="45"/>
-      <c r="B14" s="47"/>
+      <c r="H13" s="54"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="59"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="3"/>
       <c r="D14" s="10" t="s">
         <v>25</v>
@@ -3319,11 +3322,11 @@
         <v>71</v>
       </c>
       <c r="G14" s="16"/>
-      <c r="H14" s="50"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="45"/>
-      <c r="B15" s="47"/>
+      <c r="H14" s="54"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="59"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="3"/>
       <c r="D15" s="20" t="s">
         <v>66</v>
@@ -3335,11 +3338,11 @@
         <v>81</v>
       </c>
       <c r="G15" s="16"/>
-      <c r="H15" s="50"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="48"/>
+      <c r="H15" s="54"/>
+    </row>
+    <row r="16" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="59"/>
+      <c r="B16" s="56"/>
       <c r="C16" s="4"/>
       <c r="D16" s="29" t="s">
         <v>67</v>
@@ -3351,10 +3354,10 @@
         <v>82</v>
       </c>
       <c r="G16" s="16"/>
-      <c r="H16" s="50"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
+      <c r="H16" s="54"/>
+    </row>
+    <row r="17" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="59"/>
       <c r="B17" s="43" t="s">
         <v>157</v>
       </c>
@@ -3369,11 +3372,11 @@
         <v>23</v>
       </c>
       <c r="G17" s="16"/>
-      <c r="H17" s="50"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="45"/>
-      <c r="B18" s="49" t="s">
+      <c r="H17" s="54"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="59"/>
+      <c r="B18" s="57" t="s">
         <v>58</v>
       </c>
       <c r="C18" s="2"/>
@@ -3387,11 +3390,11 @@
         <v>97</v>
       </c>
       <c r="G18" s="16"/>
-      <c r="H18" s="50"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="45"/>
-      <c r="B19" s="47"/>
+      <c r="H18" s="54"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="59"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="3"/>
       <c r="D19" s="20" t="s">
         <v>65</v>
@@ -3403,10 +3406,10 @@
         <v>98</v>
       </c>
       <c r="G19" s="16"/>
-      <c r="H19" s="50"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="45"/>
+      <c r="H19" s="54"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="59"/>
       <c r="B20" s="43"/>
       <c r="C20" s="3"/>
       <c r="D20" s="20" t="s">
@@ -3421,11 +3424,11 @@
       <c r="G20" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="H20" s="50"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="45"/>
-      <c r="B21" s="47" t="s">
+      <c r="H20" s="54"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="59"/>
+      <c r="B21" s="55" t="s">
         <v>59</v>
       </c>
       <c r="C21" s="3"/>
@@ -3439,11 +3442,11 @@
         <v>1</v>
       </c>
       <c r="G21" s="16"/>
-      <c r="H21" s="50"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="45"/>
-      <c r="B22" s="47"/>
+      <c r="H21" s="54"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="59"/>
+      <c r="B22" s="55"/>
       <c r="C22" s="3"/>
       <c r="D22" s="20" t="s">
         <v>63</v>
@@ -3455,11 +3458,11 @@
         <v>2</v>
       </c>
       <c r="G22" s="16"/>
-      <c r="H22" s="50"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="45"/>
-      <c r="B23" s="47" t="s">
+      <c r="H22" s="54"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="59"/>
+      <c r="B23" s="55" t="s">
         <v>60</v>
       </c>
       <c r="C23" s="3"/>
@@ -3475,11 +3478,11 @@
       <c r="G23" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="H23" s="50"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="45"/>
-      <c r="B24" s="47"/>
+      <c r="H23" s="54"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="59"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="3"/>
       <c r="D24" s="20" t="s">
         <v>108</v>
@@ -3493,11 +3496,11 @@
       <c r="G24" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="H24" s="50"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="45"/>
-      <c r="B25" s="47" t="s">
+      <c r="H24" s="54"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="59"/>
+      <c r="B25" s="55" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="3"/>
@@ -3511,11 +3514,11 @@
         <v>72</v>
       </c>
       <c r="G25" s="16"/>
-      <c r="H25" s="50"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="45"/>
-      <c r="B26" s="47"/>
+      <c r="H25" s="54"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="59"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="3"/>
       <c r="D26" s="10" t="s">
         <v>33</v>
@@ -3527,11 +3530,11 @@
         <v>76</v>
       </c>
       <c r="G26" s="16"/>
-      <c r="H26" s="50"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="45"/>
-      <c r="B27" s="47" t="s">
+      <c r="H26" s="54"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="59"/>
+      <c r="B27" s="55" t="s">
         <v>153</v>
       </c>
       <c r="C27" s="3"/>
@@ -3545,11 +3548,11 @@
         <v>15</v>
       </c>
       <c r="G27" s="16"/>
-      <c r="H27" s="50"/>
-    </row>
-    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="46"/>
-      <c r="B28" s="48"/>
+      <c r="H27" s="54"/>
+    </row>
+    <row r="28" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="60"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="3"/>
       <c r="D28" s="26" t="s">
         <v>155</v>
@@ -3561,13 +3564,13 @@
         <v>16</v>
       </c>
       <c r="G28" s="16"/>
-      <c r="H28" s="50"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="49" t="s">
+      <c r="H28" s="54"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="57" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="2"/>
@@ -3583,11 +3586,11 @@
       <c r="G29" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="H29" s="50"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
+      <c r="H29" s="54"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="55"/>
+      <c r="B30" s="55"/>
       <c r="C30" s="3"/>
       <c r="D30" s="20" t="s">
         <v>35</v>
@@ -3601,11 +3604,11 @@
       <c r="G30" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="H30" s="50"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
+      <c r="H30" s="54"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="55"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="3"/>
       <c r="D31" s="14" t="s">
         <v>36</v>
@@ -3617,11 +3620,11 @@
       <c r="G31" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="H31" s="50"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="47"/>
-      <c r="B32" s="47" t="s">
+      <c r="H31" s="54"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="55"/>
+      <c r="B32" s="55" t="s">
         <v>41</v>
       </c>
       <c r="C32" s="3"/>
@@ -3637,11 +3640,11 @@
       <c r="G32" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="H32" s="50"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="47"/>
-      <c r="B33" s="47"/>
+      <c r="H32" s="54"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="55"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="3"/>
       <c r="D33" s="20" t="s">
         <v>95</v>
@@ -3655,11 +3658,11 @@
       <c r="G33" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="H33" s="50"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="47"/>
-      <c r="B34" s="47"/>
+      <c r="H33" s="54"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="55"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="3"/>
       <c r="D34" s="20" t="s">
         <v>39</v>
@@ -3673,11 +3676,11 @@
       <c r="G34" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="H34" s="50"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="47"/>
-      <c r="B35" s="47"/>
+      <c r="H34" s="54"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="55"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="3"/>
       <c r="D35" s="20" t="s">
         <v>40</v>
@@ -3691,11 +3694,11 @@
       <c r="G35" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="H35" s="50"/>
-    </row>
-    <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
-      <c r="B36" s="47"/>
+      <c r="H35" s="54"/>
+    </row>
+    <row r="36" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="55"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="3"/>
       <c r="D36" s="14" t="s">
         <v>36</v>
@@ -3707,11 +3710,11 @@
       <c r="G36" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="H36" s="50"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="47"/>
-      <c r="B37" s="44" t="s">
+      <c r="H36" s="54"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="55"/>
+      <c r="B37" s="58" t="s">
         <v>45</v>
       </c>
       <c r="C37" s="3"/>
@@ -3727,11 +3730,11 @@
       <c r="G37" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="H37" s="50"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="47"/>
-      <c r="B38" s="45"/>
+      <c r="H37" s="54"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="55"/>
+      <c r="B38" s="59"/>
       <c r="C38" s="3"/>
       <c r="D38" s="20" t="s">
         <v>42</v>
@@ -3745,11 +3748,11 @@
       <c r="G38" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="H38" s="50"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="47"/>
-      <c r="B39" s="45"/>
+      <c r="H38" s="54"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="55"/>
+      <c r="B39" s="59"/>
       <c r="C39" s="3"/>
       <c r="D39" s="18" t="s">
         <v>44</v>
@@ -3759,11 +3762,11 @@
         <v>0</v>
       </c>
       <c r="G39" s="16"/>
-      <c r="H39" s="50"/>
-    </row>
-    <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="46"/>
+      <c r="H39" s="54"/>
+    </row>
+    <row r="40" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="55"/>
+      <c r="B40" s="60"/>
       <c r="C40" s="3"/>
       <c r="D40" s="14" t="s">
         <v>36</v>
@@ -3775,13 +3778,13 @@
       <c r="G40" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="H40" s="50"/>
-    </row>
-    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="44" t="s">
+      <c r="H40" s="54"/>
+    </row>
+    <row r="41" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="57" t="s">
         <v>76</v>
       </c>
       <c r="C41" s="2"/>
@@ -3791,21 +3794,21 @@
       <c r="G41" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="H41" s="50"/>
-    </row>
-    <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
-      <c r="B42" s="49"/>
+      <c r="H41" s="54"/>
+    </row>
+    <row r="42" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="58"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="3"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
       <c r="F42" s="41"/>
       <c r="G42" s="16"/>
-      <c r="H42" s="50"/>
-    </row>
-    <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
-      <c r="B43" s="47" t="s">
+      <c r="H42" s="54"/>
+    </row>
+    <row r="43" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="58"/>
+      <c r="B43" s="55" t="s">
         <v>74</v>
       </c>
       <c r="C43" s="3"/>
@@ -3813,21 +3816,21 @@
       <c r="E43" s="19"/>
       <c r="F43" s="41"/>
       <c r="G43" s="16"/>
-      <c r="H43" s="50"/>
-    </row>
-    <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="44"/>
-      <c r="B44" s="47"/>
+      <c r="H43" s="54"/>
+    </row>
+    <row r="44" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="58"/>
+      <c r="B44" s="55"/>
       <c r="C44" s="3"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
       <c r="F44" s="41"/>
       <c r="G44" s="16"/>
-      <c r="H44" s="50"/>
-    </row>
-    <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="44"/>
-      <c r="B45" s="47" t="s">
+      <c r="H44" s="54"/>
+    </row>
+    <row r="45" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="58"/>
+      <c r="B45" s="55" t="s">
         <v>75</v>
       </c>
       <c r="C45" s="3"/>
@@ -3835,33 +3838,33 @@
       <c r="E45" s="19"/>
       <c r="F45" s="41"/>
       <c r="G45" s="16"/>
-      <c r="H45" s="50"/>
-    </row>
-    <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="44"/>
-      <c r="B46" s="47"/>
+      <c r="H45" s="54"/>
+    </row>
+    <row r="46" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="58"/>
+      <c r="B46" s="55"/>
       <c r="C46" s="3"/>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
       <c r="F46" s="41"/>
       <c r="G46" s="16"/>
-      <c r="H46" s="50"/>
-    </row>
-    <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
-      <c r="B47" s="48"/>
+      <c r="H46" s="54"/>
+    </row>
+    <row r="47" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="58"/>
+      <c r="B47" s="56"/>
       <c r="C47" s="3"/>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
       <c r="F47" s="41"/>
       <c r="G47" s="16"/>
-      <c r="H47" s="50"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="47" t="s">
+      <c r="H47" s="54"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="B48" s="49" t="s">
+      <c r="B48" s="57" t="s">
         <v>57</v>
       </c>
       <c r="C48" s="2"/>
@@ -3877,11 +3880,11 @@
       <c r="G48" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="H48" s="50"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="47"/>
-      <c r="B49" s="47"/>
+      <c r="H48" s="54"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="55"/>
+      <c r="B49" s="55"/>
       <c r="C49" s="3"/>
       <c r="D49" s="26" t="s">
         <v>89</v>
@@ -3895,11 +3898,11 @@
       <c r="G49" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="H49" s="50"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="47"/>
-      <c r="B50" s="47"/>
+      <c r="H49" s="54"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="55"/>
+      <c r="B50" s="55"/>
       <c r="C50" s="3"/>
       <c r="D50" s="10" t="s">
         <v>120</v>
@@ -3911,11 +3914,11 @@
         <v>55</v>
       </c>
       <c r="G50" s="17"/>
-      <c r="H50" s="50"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="47"/>
-      <c r="B51" s="47"/>
+      <c r="H50" s="54"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="55"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="3"/>
       <c r="D51" s="10" t="s">
         <v>121</v>
@@ -3927,11 +3930,11 @@
         <v>56</v>
       </c>
       <c r="G51" s="17"/>
-      <c r="H51" s="50"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="47"/>
-      <c r="B52" s="47"/>
+      <c r="H51" s="54"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="55"/>
+      <c r="B52" s="55"/>
       <c r="C52" s="3"/>
       <c r="D52" s="9" t="s">
         <v>122</v>
@@ -3943,11 +3946,11 @@
         <v>59</v>
       </c>
       <c r="G52" s="17"/>
-      <c r="H52" s="50"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="47"/>
-      <c r="B53" s="47"/>
+      <c r="H52" s="54"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="55"/>
+      <c r="B53" s="55"/>
       <c r="C53" s="3"/>
       <c r="D53" s="9" t="s">
         <v>123</v>
@@ -3959,11 +3962,11 @@
         <v>58</v>
       </c>
       <c r="G53" s="17"/>
-      <c r="H53" s="50"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="47"/>
-      <c r="B54" s="47"/>
+      <c r="H53" s="54"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="55"/>
+      <c r="B54" s="55"/>
       <c r="C54" s="3"/>
       <c r="D54" s="20" t="s">
         <v>56</v>
@@ -3977,11 +3980,11 @@
       <c r="G54" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="H54" s="50"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="47"/>
-      <c r="B55" s="47"/>
+      <c r="H54" s="54"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="55"/>
+      <c r="B55" s="55"/>
       <c r="C55" s="3"/>
       <c r="D55" s="20" t="s">
         <v>55</v>
@@ -3993,11 +3996,11 @@
         <v>61</v>
       </c>
       <c r="G55" s="17"/>
-      <c r="H55" s="50"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="47"/>
-      <c r="B56" s="47" t="s">
+      <c r="H55" s="54"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="55"/>
+      <c r="B56" s="55" t="s">
         <v>17</v>
       </c>
       <c r="C56" s="3"/>
@@ -4011,11 +4014,11 @@
         <v>29</v>
       </c>
       <c r="G56" s="17"/>
-      <c r="H56" s="50"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="47"/>
-      <c r="B57" s="47"/>
+      <c r="H56" s="54"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="55"/>
+      <c r="B57" s="55"/>
       <c r="C57" s="3"/>
       <c r="D57" s="9" t="s">
         <v>19</v>
@@ -4027,11 +4030,11 @@
         <v>30</v>
       </c>
       <c r="G57" s="17"/>
-      <c r="H57" s="50"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="47"/>
-      <c r="B58" s="47"/>
+      <c r="H57" s="54"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="55"/>
+      <c r="B58" s="55"/>
       <c r="C58" s="3"/>
       <c r="D58" s="9" t="s">
         <v>20</v>
@@ -4043,11 +4046,11 @@
         <v>31</v>
       </c>
       <c r="G58" s="17"/>
-      <c r="H58" s="50"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="47"/>
-      <c r="B59" s="47"/>
+      <c r="H58" s="54"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="55"/>
+      <c r="B59" s="55"/>
       <c r="C59" s="3"/>
       <c r="D59" s="9" t="s">
         <v>21</v>
@@ -4059,11 +4062,11 @@
         <v>32</v>
       </c>
       <c r="G59" s="17"/>
-      <c r="H59" s="50"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="47"/>
-      <c r="B60" s="47"/>
+      <c r="H59" s="54"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="55"/>
+      <c r="B60" s="55"/>
       <c r="C60" s="3"/>
       <c r="D60" s="9" t="s">
         <v>22</v>
@@ -4075,11 +4078,11 @@
         <v>67</v>
       </c>
       <c r="G60" s="17"/>
-      <c r="H60" s="50"/>
-    </row>
-    <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="47"/>
-      <c r="B61" s="48"/>
+      <c r="H60" s="54"/>
+    </row>
+    <row r="61" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="55"/>
+      <c r="B61" s="56"/>
       <c r="C61" s="4"/>
       <c r="D61" s="29" t="s">
         <v>80</v>
@@ -4091,13 +4094,13 @@
         <v>35</v>
       </c>
       <c r="G61" s="17"/>
-      <c r="H61" s="50"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="47" t="s">
+      <c r="H61" s="54"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="B62" s="47" t="s">
+      <c r="B62" s="55" t="s">
         <v>50</v>
       </c>
       <c r="C62" s="3"/>
@@ -4113,11 +4116,11 @@
       <c r="G62" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="H62" s="50"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="47"/>
-      <c r="B63" s="47"/>
+      <c r="H62" s="54"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="55"/>
+      <c r="B63" s="55"/>
       <c r="C63" s="3"/>
       <c r="D63" s="20" t="s">
         <v>47</v>
@@ -4131,11 +4134,11 @@
       <c r="G63" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="H63" s="50"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="47"/>
-      <c r="B64" s="47"/>
+      <c r="H63" s="54"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="55"/>
+      <c r="B64" s="55"/>
       <c r="C64" s="3"/>
       <c r="D64" s="18" t="s">
         <v>48</v>
@@ -4145,11 +4148,11 @@
         <v>0</v>
       </c>
       <c r="G64" s="16"/>
-      <c r="H64" s="50"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="47"/>
-      <c r="B65" s="47"/>
+      <c r="H64" s="54"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="55"/>
+      <c r="B65" s="55"/>
       <c r="C65" s="3"/>
       <c r="D65" s="19" t="s">
         <v>49</v>
@@ -4159,11 +4162,11 @@
         <v>0</v>
       </c>
       <c r="G65" s="16"/>
-      <c r="H65" s="50"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="47"/>
-      <c r="B66" s="47" t="s">
+      <c r="H65" s="54"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="55"/>
+      <c r="B66" s="55" t="s">
         <v>54</v>
       </c>
       <c r="C66" s="3"/>
@@ -4179,11 +4182,11 @@
       <c r="G66" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="H66" s="50"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="47"/>
-      <c r="B67" s="47"/>
+      <c r="H66" s="54"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="55"/>
+      <c r="B67" s="55"/>
       <c r="C67" s="3"/>
       <c r="D67" s="20" t="s">
         <v>51</v>
@@ -4197,11 +4200,11 @@
       <c r="G67" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="H67" s="50"/>
-    </row>
-    <row r="68" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="48"/>
-      <c r="B68" s="48"/>
+      <c r="H67" s="54"/>
+    </row>
+    <row r="68" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="56"/>
+      <c r="B68" s="56"/>
       <c r="C68" s="4"/>
       <c r="D68" s="8" t="s">
         <v>71</v>
@@ -4213,14 +4216,14 @@
       <c r="G68" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="H68" s="50"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H68" s="54"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>118</v>
       </c>
@@ -4228,26 +4231,17 @@
         <v>119</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E79" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="A48:A61"/>
-    <mergeCell ref="B48:B55"/>
-    <mergeCell ref="B56:B61"/>
     <mergeCell ref="H2:H68"/>
     <mergeCell ref="A7:A28"/>
     <mergeCell ref="B7:B12"/>
@@ -4264,6 +4258,15 @@
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="A29:A40"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="A48:A61"/>
+    <mergeCell ref="B48:B55"/>
+    <mergeCell ref="B56:B61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4272,12 +4275,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2990E6C2-B4D5-490D-9CEF-A21DA6ACBAC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
